--- a/wuxin/Explain.xlsx
+++ b/wuxin/Explain.xlsx
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1&gt; 启动数据库&gt;启动项目&gt;输入网址localhost:8080/login   可跳转到登陆界面与数据库中信息验证,验证码为canvas实现验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2&gt;登陆成功后进入后台系统&gt;点击左侧第一个商品管理&gt;出现下拉菜单&gt;点击第一个商品列表&gt;商品列表页通过ajax请求页面并将数据库中商品信息输出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +119,10 @@
   </si>
   <si>
     <t>2-4-1&gt;新商品页中可实现添加指定商品名称及价格及唯一货号及图片信息的商品信息异步实现存入商品数据库并ajax请求显示商品列表页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&gt; 启动数据库&gt;启动项目&gt;输入网址localhost:8080/login   可跳转到登陆界面与数据库中信息验证,验证码为canvas实现验证..登录账号:admin  密码:h5h5h5h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,21 +193,21 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -512,7 +512,7 @@
   <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B10" sqref="B10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -615,175 +615,175 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="B10:L10"/>
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
